--- a/excel_routes/route_JED_HBE_threats.xlsx
+++ b/excel_routes/route_JED_HBE_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -80,6 +86,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -528,27 +537,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-458</t>
+          <t>SM-452</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-364</t>
+          <t>Air Arabia Egypt E5-394</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>876</v>
+        <v>646</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>781</v>
+        <v>586</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>40</v>
@@ -573,36 +582,36 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>10-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-458</t>
+          <t>SM-452</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-656</t>
+          <t>Air Arabia Egypt E5-326</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>886</v>
+        <v>702</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>781</v>
+        <v>586</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -618,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>16-JAN-26</t>
+          <t>19-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -628,26 +637,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Air Arabia Egypt E5-324</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>461</v>
+        <v>608</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -677,13 +686,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -708,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -718,30 +727,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>Air Arabia Egypt E5-364</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>329</v>
+        <v>633</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>706</v>
+        <v>781</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-377</v>
+        <v>-148</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -753,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -763,30 +772,30 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>Air Arabia Egypt E5-326</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>329</v>
+        <v>670</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>706</v>
+        <v>781</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-377</v>
+        <v>-111</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -798,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -808,26 +817,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flyadeal F3-773</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>400</v>
+        <v>679</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>706</v>
+        <v>781</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-306</v>
+        <v>-102</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -843,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -853,30 +862,30 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-328</t>
+          <t>Saudia SV-331</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>401</v>
+        <v>774</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>706</v>
+        <v>781</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-305</v>
+        <v>-7</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -888,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -898,26 +907,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Saudia SV-411</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>462</v>
+        <v>1006</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>706</v>
+        <v>781</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-244</v>
+        <v>225</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -925,276 +934,6 @@
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>20-JAN-26</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>SM-452</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-128</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>503</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-203</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>20-JAN-26</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>SM-452</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-565</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>519</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-187</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>20-JAN-26</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>SM-452</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-573</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-147</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>20-JAN-26</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>SM-452</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-662</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>681</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-25</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>20-JAN-26</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>SM-452</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-656</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>776</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>21-JAN-26</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>SM-474</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-656</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>576</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>401</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
